--- a/ml_all/output/nn0.xlsx
+++ b/ml_all/output/nn0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -423,70 +423,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6051</v>
+        <v>12098</v>
       </c>
       <c r="B1" t="n">
-        <v>65</v>
+        <v>2483</v>
       </c>
       <c r="C1" t="n">
-        <v>1086</v>
+        <v>341</v>
       </c>
       <c r="D1" t="n">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="E1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2916</v>
+        <v>4628</v>
       </c>
       <c r="B2" t="n">
-        <v>223</v>
+        <v>6936</v>
       </c>
       <c r="C2" t="n">
-        <v>3617</v>
+        <v>3307</v>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1714</v>
+        <v>1882</v>
       </c>
       <c r="B3" t="n">
-        <v>154</v>
+        <v>3026</v>
       </c>
       <c r="C3" t="n">
-        <v>3416</v>
+        <v>8108</v>
       </c>
       <c r="D3" t="n">
-        <v>156</v>
+        <v>697</v>
       </c>
       <c r="E3" t="n">
-        <v>1818</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>960</v>
+        <v>4500</v>
       </c>
       <c r="D4" t="n">
-        <v>468</v>
+        <v>4269</v>
       </c>
       <c r="E4" t="n">
-        <v>5695</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="5">
@@ -497,81 +497,81 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1564</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>7258</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3215</v>
+        <v>3263</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>5553</v>
       </c>
       <c r="C7" t="n">
-        <v>1133</v>
+        <v>697</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2415</v>
+        <v>1632</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>5146</v>
       </c>
       <c r="C8" t="n">
-        <v>1783</v>
+        <v>2425</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v>117</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>429</v>
+        <v>990</v>
       </c>
       <c r="B9" t="n">
-        <v>91</v>
+        <v>2463</v>
       </c>
       <c r="C9" t="n">
-        <v>2527</v>
+        <v>5103</v>
       </c>
       <c r="D9" t="n">
-        <v>137</v>
+        <v>642</v>
       </c>
       <c r="E9" t="n">
-        <v>1226</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>2847</v>
       </c>
       <c r="D10" t="n">
-        <v>322</v>
+        <v>2927</v>
       </c>
       <c r="E10" t="n">
-        <v>3545</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="11">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>901</v>
+        <v>5167</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="E11" t="n">
-        <v>3509</v>
+        <v>3828</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>